--- a/docs/cda-logical-model/ValueSet-CDACompressionAlgorithm.xlsx
+++ b/docs/cda-logical-model/ValueSet-CDACompressionAlgorithm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,9 +42,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CompressionAlgorithm</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -295,75 +292,75 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -385,50 +382,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
